--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\RoboticEnterpriseFramework_Gti1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A0E448-3AE4-4A95-A736-5F4166131DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
-  </si>
-  <si>
-    <t>ProcessABCQueue</t>
   </si>
 </sst>
 </file>
@@ -212,10 +209,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -239,9 +236,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,7 +276,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -385,7 +382,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -527,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -587,9 +584,7 @@
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1620,7 +1615,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1670,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
@@ -2782,7 +2777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\RoboticEnterpriseFramework_Gti1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A0E448-3AE4-4A95-A736-5F4166131DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273B142B-1B6E-47D7-944D-6E3D17908B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>Data\Input\Phone Number.xlsx</t>
   </si>
 </sst>
 </file>
@@ -535,7 +541,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -612,7 +618,14 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\RoboticEnterpriseFramework_Gti1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273B142B-1B6E-47D7-944D-6E3D17908B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66CB9B6-92C6-4E15-B1B4-A4D1972C85B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -163,6 +163,18 @@
   </si>
   <si>
     <t>Data\Input\Phone Number.xlsx</t>
+  </si>
+  <si>
+    <t>Data\Input\Photo</t>
+  </si>
+  <si>
+    <t>Photo and video</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Hello, How Are you</t>
   </si>
 </sst>
 </file>
@@ -541,7 +553,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -626,8 +638,25 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\RoboticEnterpriseFramework_Gti1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66CB9B6-92C6-4E15-B1B4-A4D1972C85B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E523829-B5E2-46E9-9E16-875745541122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>Data\Input\Phone Number.xlsx</t>
   </si>
   <si>
-    <t>Data\Input\Photo</t>
-  </si>
-  <si>
     <t>Photo and video</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Hello, How Are you</t>
+  </si>
+  <si>
+    <t>Data\Input\Photo\</t>
   </si>
 </sst>
 </file>
@@ -553,7 +553,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -643,18 +643,18 @@
         <v>44</v>
       </c>
       <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
         <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\RoboticEnterpriseFramework_Gti1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E523829-B5E2-46E9-9E16-875745541122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8AD3D-E350-4CB2-AFAC-8C0E05F18026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -174,7 +174,10 @@
     <t>Hello, How Are you</t>
   </si>
   <si>
-    <t>Data\Input\Photo\</t>
+    <t>FolderPath</t>
+  </si>
+  <si>
+    <t>Data\Input\Photo</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -640,10 +643,10 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\RoboticEnterpriseFramework_Gti1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8AD3D-E350-4CB2-AFAC-8C0E05F18026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B9DB61-BE9D-4761-882A-54F69467A681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,7 +177,7 @@
     <t>FolderPath</t>
   </si>
   <si>
-    <t>Data\Input\Photo</t>
+    <t>Data\Input\Photo\</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\RoboticEnterpriseFramework_Gti1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B9DB61-BE9D-4761-882A-54F69467A681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3856A7-9C41-4496-A682-66AC6C72CB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\RoboticEnterpriseFramework_Gti1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3856A7-9C41-4496-A682-66AC6C72CB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EF7A6D-3459-40BC-9072-98B7B1D89EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>Data\Input\Photo\</t>
+  </si>
+  <si>
+    <t>Text Message</t>
+  </si>
+  <si>
+    <t>Phone number</t>
   </si>
 </sst>
 </file>
@@ -556,7 +562,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -640,6 +646,9 @@
       <c r="B8" t="s">
         <v>45</v>
       </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
@@ -658,6 +667,9 @@
       </c>
       <c r="B10" t="s">
         <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
